--- a/CML_Marking/check_configuration.xlsx
+++ b/CML_Marking/check_configuration.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>NODES</t>
   </si>
@@ -41,9 +41,6 @@
     <t>expected_values</t>
   </si>
   <si>
-    <t>Exclusion_value</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -71,13 +68,10 @@
     <t>IP addressing</t>
   </si>
   <si>
-    <t>show ip interface brief | exclude unassigned</t>
+    <t>show ip interface brief | exclude unassigned|down</t>
   </si>
   <si>
     <t>GigabitEthernet1, 100.48.0.254,Loopback0, 8.8.8.8, Loopback1, 13.248.201.117</t>
-  </si>
-  <si>
-    <t>administratively down</t>
   </si>
   <si>
     <t>PKI Server</t>
@@ -1126,25 +1120,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.41666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110.583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.0833333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="65.0833333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="71.8333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.41666666666667" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="117.083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="71.8333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.41666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1163,120 +1156,112 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="2" ht="45" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+    <row r="3" ht="30" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.25</v>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <v>0.2</v>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1">
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" ht="30" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1">
         <v>0.3</v>
       </c>
     </row>
@@ -1284,7 +1269,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F1:G1 A1:D1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/CML_Marking/check_configuration.xlsx
+++ b/CML_Marking/check_configuration.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>NODES</t>
   </si>
@@ -47,7 +47,7 @@
     <t>score</t>
   </si>
   <si>
-    <t>ISP, RTA</t>
+    <t>ISP</t>
   </si>
   <si>
     <t>Basic Configuration</t>
@@ -62,16 +62,13 @@
     <t>Check only if password type is 8. Hash value could be different.</t>
   </si>
   <si>
-    <t>ISP</t>
-  </si>
-  <si>
     <t>IP addressing</t>
   </si>
   <si>
     <t>show ip interface brief | exclude unassigned|down</t>
   </si>
   <si>
-    <t>GigabitEthernet1, 100.48.0.254,Loopback0, 8.8.8.8, Loopback1, 13.248.201.117</t>
+    <t>GigabitEthernet1, 100.48.0.254, Loopback0, 8.8.8.8, Loopback1, 13.248.201.117</t>
   </si>
   <si>
     <t>PKI Server</t>
@@ -80,7 +77,8 @@
     <t>show crypto pki server | include enabled|Issuer|mode</t>
   </si>
   <si>
-    <t>Status: enabled, State: enabled, CN=ROOTCA, auto</t>
+    <t xml:space="preserve">Status: enabled, State: enabled, Issuer name: CN=ROOTCA, Granting mode: auto
+</t>
   </si>
   <si>
     <t>OSPF - Basic Configuration</t>
@@ -89,7 +87,7 @@
     <t>show ip ospf topology-info | inc 8.8.8.8, show ip protocols | include 100.48</t>
   </si>
   <si>
-    <t>8.8.8.8, 100.48.0.0 0.0.0.255 area 0</t>
+    <t>OSPF Router with ID (8.8.8.8) (Process ID 1), 100.48.0.0 0.0.0.255 area 0</t>
   </si>
   <si>
     <t>OSPF - No DR/BDR election</t>
@@ -98,7 +96,7 @@
     <t>show ip ospf neighbor | include FULL</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0.0.2           0   FULL/  - , 0.0.0.1           0   FULL/  - </t>
+    <t>0.0.0.2, FULL, 100.48.0.2, GigabitEthernet1, 0.0.0.1, FULL, 100.48.0.1, GigabitEthernet1</t>
   </si>
   <si>
     <t>OSPF - Always advertise default route</t>
@@ -107,10 +105,58 @@
     <t>show ip route  static | inc 0.0.0.0, show ip ospf database | inc 0.0.0.0</t>
   </si>
   <si>
-    <t>0.0.0.0</t>
+    <t>0.0.0.0, 8.8.8.8</t>
   </si>
   <si>
     <t>No static default route exists</t>
+  </si>
+  <si>
+    <t>OSPF - Route Tag</t>
+  </si>
+  <si>
+    <t>show ip ospf database external | include 101|102|103|104</t>
+  </si>
+  <si>
+    <t>101, 102, 103, 104</t>
+  </si>
+  <si>
+    <t>OSPF - Redistributing External Routes</t>
+  </si>
+  <si>
+    <t>show ip route ospf | include O E1</t>
+  </si>
+  <si>
+    <t>1.1.1.1, 2.2.2.2, 3.3.3.3, 4.4.4.4, 100.48.0.1, GigabitEthernet1</t>
+  </si>
+  <si>
+    <t>There is no IPv4 private address routing, such as 10.10.101.0/24</t>
+  </si>
+  <si>
+    <t>OSPF - Area Summary</t>
+  </si>
+  <si>
+    <t>show ip route ospf | include ^O IA</t>
+  </si>
+  <si>
+    <t>100.48.8.0/21, 100.48.10.0/21, 100.48.0.1</t>
+  </si>
+  <si>
+    <t>BGP - Neighborship</t>
+  </si>
+  <si>
+    <t>show ip bgp neighbors | include ^BGP|Established</t>
+  </si>
+  <si>
+    <t>1.1.1.1, AS 101, Established, 2.2.2.2, AS 103, Established, 3.3.3.3, AS 103, Established, 4.4.4.4, AS 104, Established</t>
+  </si>
+  <si>
+    <t>BGP - Advertise network</t>
+  </si>
+  <si>
+    <t>show ip bgp | begin Network</t>
+  </si>
+  <si>
+    <t>*&gt;   13.248.201.117/32        0.0.0.0</t>
   </si>
 </sst>
 </file>
@@ -1120,13 +1166,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.41666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.75" style="1" customWidth="1"/>
@@ -1179,67 +1225,67 @@
     </row>
     <row r="3" ht="30" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="45" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="30" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="30" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="1">
         <v>0.4</v>
@@ -1247,22 +1293,110 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
